--- a/biology/Zoologie/Creonpyge_creon/Creonpyge_creon.xlsx
+++ b/biology/Zoologie/Creonpyge_creon/Creonpyge_creon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Creonpyge creon est une espèce néotropicale de lépidoptères de la famille des Hesperiidae, de la sous-famille des Pyrginae et de la tribu des Pyrrhopygini. Elle est l'unique représentante du genre monotypique Creonpyge.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Creonpyge creon a été décrite par l'entomologiste britannique Herbert Druce en 1874, sous le nom initial de Pyrrhopyge creon[1]. Le genre Creonpyge a quant à lui été décrit par Mielke en 2002[1].
-L'espèce porte en anglais le nom vernaculaire de Creon skipper[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Creonpyge creon a été décrite par l'entomologiste britannique Herbert Druce en 1874, sous le nom initial de Pyrrhopyge creon. Le genre Creonpyge a quant à lui été décrit par Mielke en 2002.
+L'espèce porte en anglais le nom vernaculaire de Creon skipper.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Creonpyge creon creon ; présent à Panama.
 Creonpyge creon lilliana (Nicolay &amp; Small, 1969) ; présent à Panama.
-Creonpyge creon taylori (Nicolay &amp; Small, 1981) ; présent au Costa Rica[1].</t>
+Creonpyge creon taylori (Nicolay &amp; Small, 1981) ; présent au Costa Rica.</t>
         </is>
       </c>
     </row>
@@ -577,11 +593,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Imago
-L'imago est un papillon d'une envergure de 54 mm à  65 mm, au corps trapu noir[2].
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago est un papillon d'une envergure de 54 mm à  65 mm, au corps trapu noir.
 Les ailes sont de couleur bleu métallisé brillant avec une frange grise et aux ailes postérieures une tache rouge proche de l'angle anal.
-Chenille
-La chenille est marron foncé, ornée de deux lignes de points de couleur orange.
 </t>
         </is>
       </c>
@@ -607,13 +626,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont Dendropanax gonatopdodus et  Dendropanax querceti[1].
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est marron foncé, ornée de deux lignes de points de couleur orange.
 </t>
         </is>
       </c>
@@ -639,12 +663,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Creonpyge creon est présente à Panama et au Costa Rica[1].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont Dendropanax gonatopdodus et  Dendropanax querceti.
 </t>
         </is>
       </c>
@@ -670,10 +700,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Creonpyge creon est présente à Panama et au Costa Rica.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Creonpyge_creon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Creonpyge_creon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'a pas de statut de protection particulier.[réf. nécessaire]
 </t>
